--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H2">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I2">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J2">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N2">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P2">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q2">
-        <v>0.4135521504053333</v>
+        <v>1.172172212351111</v>
       </c>
       <c r="R2">
-        <v>3.721969353647999</v>
+        <v>10.54954991116</v>
       </c>
       <c r="S2">
-        <v>0.003546307439997775</v>
+        <v>0.01539667049429507</v>
       </c>
       <c r="T2">
-        <v>0.003546307439997775</v>
+        <v>0.01539667049429507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H3">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I3">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J3">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P3">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q3">
-        <v>5.668516558908</v>
+        <v>6.49036992084</v>
       </c>
       <c r="R3">
-        <v>51.016649030172</v>
+        <v>58.41332928756</v>
       </c>
       <c r="S3">
-        <v>0.04860886934550633</v>
+        <v>0.08525205256045133</v>
       </c>
       <c r="T3">
-        <v>0.04860886934550633</v>
+        <v>0.08525205256045133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H4">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I4">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J4">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N4">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P4">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q4">
-        <v>0.02721001528933334</v>
+        <v>0.007088404642222222</v>
       </c>
       <c r="R4">
-        <v>0.244890137604</v>
+        <v>0.06379564178</v>
       </c>
       <c r="S4">
-        <v>0.0002333323126682782</v>
+        <v>9.310733478967343E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002333323126682781</v>
+        <v>9.310733478967343E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H5">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I5">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J5">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N5">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P5">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q5">
-        <v>3.302537901142667</v>
+        <v>1.909356948893334</v>
       </c>
       <c r="R5">
-        <v>29.722841110284</v>
+        <v>17.18421254004</v>
       </c>
       <c r="S5">
-        <v>0.028320043114799</v>
+        <v>0.02507971054793908</v>
       </c>
       <c r="T5">
-        <v>0.028320043114799</v>
+        <v>0.02507971054793908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H6">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I6">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J6">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N6">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P6">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q6">
-        <v>0.1302723867013333</v>
+        <v>0.09629649715111112</v>
       </c>
       <c r="R6">
-        <v>1.172451480312</v>
+        <v>0.8666684743600002</v>
       </c>
       <c r="S6">
-        <v>0.001117116508117298</v>
+        <v>0.001264869974537813</v>
       </c>
       <c r="T6">
-        <v>0.001117116508117298</v>
+        <v>0.001264869974537813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.211106</v>
+        <v>0.2417133333333333</v>
       </c>
       <c r="H7">
-        <v>0.633318</v>
+        <v>0.72514</v>
       </c>
       <c r="I7">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="J7">
-        <v>0.08263545997793841</v>
+        <v>0.1283669005502602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N7">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O7">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P7">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q7">
-        <v>0.09443369513666666</v>
+        <v>0.09748564618</v>
       </c>
       <c r="R7">
-        <v>0.84990325623</v>
+        <v>0.87737081562</v>
       </c>
       <c r="S7">
-        <v>0.0008097912568497284</v>
+        <v>0.0012804896382472</v>
       </c>
       <c r="T7">
-        <v>0.0008097912568497283</v>
+        <v>0.0012804896382472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.201637</v>
       </c>
       <c r="I8">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J8">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N8">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P8">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q8">
-        <v>1.437653304914666</v>
+        <v>3.558895817475332</v>
       </c>
       <c r="R8">
-        <v>12.938879744232</v>
+        <v>32.03006235727799</v>
       </c>
       <c r="S8">
-        <v>0.01232821690410565</v>
+        <v>0.04674666883229212</v>
       </c>
       <c r="T8">
-        <v>0.01232821690410565</v>
+        <v>0.04674666883229213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.201637</v>
       </c>
       <c r="I9">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J9">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P9">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q9">
         <v>19.705765178322</v>
@@ -1013,10 +1013,10 @@
         <v>177.351886604898</v>
       </c>
       <c r="S9">
-        <v>0.1689815942058058</v>
+        <v>0.2588383943004584</v>
       </c>
       <c r="T9">
-        <v>0.1689815942058058</v>
+        <v>0.2588383943004584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>2.201637</v>
       </c>
       <c r="I10">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J10">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N10">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P10">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q10">
-        <v>0.09459162132066667</v>
+        <v>0.02152149092766667</v>
       </c>
       <c r="R10">
-        <v>0.851324591886</v>
+        <v>0.193693418349</v>
       </c>
       <c r="S10">
-        <v>0.0008111455112061397</v>
+        <v>0.0002826882439864471</v>
       </c>
       <c r="T10">
-        <v>0.0008111455112061396</v>
+        <v>0.0002826882439864471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.201637</v>
       </c>
       <c r="I11">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J11">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N11">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P11">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q11">
-        <v>11.48078790916733</v>
+        <v>5.797102497298</v>
       </c>
       <c r="R11">
-        <v>103.327091182506</v>
+        <v>52.173922475682</v>
       </c>
       <c r="S11">
-        <v>0.09845047000580548</v>
+        <v>0.07614587347496062</v>
       </c>
       <c r="T11">
-        <v>0.09845047000580548</v>
+        <v>0.07614587347496062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.201637</v>
       </c>
       <c r="I12">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J12">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N12">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P12">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q12">
-        <v>0.4528728168786667</v>
+        <v>0.2923710333153333</v>
       </c>
       <c r="R12">
-        <v>4.075855351908</v>
+        <v>2.631339299838</v>
       </c>
       <c r="S12">
-        <v>0.003883491449132733</v>
+        <v>0.003840340535802061</v>
       </c>
       <c r="T12">
-        <v>0.003883491449132733</v>
+        <v>0.003840340535802062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.201637</v>
       </c>
       <c r="I13">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="J13">
-        <v>0.2872700384316384</v>
+        <v>0.3897417296339647</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N13">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O13">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P13">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q13">
-        <v>0.3282848699383333</v>
+        <v>0.2959814733689999</v>
       </c>
       <c r="R13">
-        <v>2.954563829444999</v>
+        <v>2.663833260321</v>
       </c>
       <c r="S13">
-        <v>0.002815120355582607</v>
+        <v>0.003887764246465029</v>
       </c>
       <c r="T13">
-        <v>0.002815120355582606</v>
+        <v>0.00388776424646503</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H14">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I14">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J14">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N14">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P14">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q14">
-        <v>0.7068275816275554</v>
+        <v>1.095020992792</v>
       </c>
       <c r="R14">
-        <v>6.361448234647999</v>
+        <v>9.855188935128</v>
       </c>
       <c r="S14">
-        <v>0.006061213583497566</v>
+        <v>0.01438327681948508</v>
       </c>
       <c r="T14">
-        <v>0.006061213583497566</v>
+        <v>0.01438327681948508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H15">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I15">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J15">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P15">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q15">
-        <v>9.688412566158</v>
+        <v>6.063180170472</v>
       </c>
       <c r="R15">
-        <v>87.19571309542199</v>
+        <v>54.568621534248</v>
       </c>
       <c r="S15">
-        <v>0.08308042778029033</v>
+        <v>0.07964084649733909</v>
       </c>
       <c r="T15">
-        <v>0.08308042778029033</v>
+        <v>0.07964084649733909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H16">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I16">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J16">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N16">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P16">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q16">
-        <v>0.0465063215948889</v>
+        <v>0.006621852836</v>
       </c>
       <c r="R16">
-        <v>0.4185568943540001</v>
+        <v>0.059596675524</v>
       </c>
       <c r="S16">
-        <v>0.0003988027002573574</v>
+        <v>8.697910179350507E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003988027002573573</v>
+        <v>8.697910179350507E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H17">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I17">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J17">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N17">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P17">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q17">
-        <v>5.644571973837111</v>
+        <v>1.783684956648</v>
       </c>
       <c r="R17">
-        <v>50.80114776453401</v>
+        <v>16.053164609832</v>
       </c>
       <c r="S17">
-        <v>0.04840353886880267</v>
+        <v>0.02342898872176477</v>
       </c>
       <c r="T17">
-        <v>0.04840353886880267</v>
+        <v>0.02342898872176477</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H18">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I18">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J18">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N18">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P18">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q18">
-        <v>0.2226566007568889</v>
+        <v>0.08995835663200001</v>
       </c>
       <c r="R18">
-        <v>2.003909406812</v>
+        <v>0.8096252096880001</v>
       </c>
       <c r="S18">
-        <v>0.001909332980265858</v>
+        <v>0.001181617479647529</v>
       </c>
       <c r="T18">
-        <v>0.001909332980265858</v>
+        <v>0.001181617479647529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3608143333333333</v>
+        <v>0.225804</v>
       </c>
       <c r="H19">
-        <v>1.082443</v>
+        <v>0.677412</v>
       </c>
       <c r="I19">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="J19">
-        <v>0.1412373802811535</v>
+        <v>0.1199179176925185</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N19">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O19">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P19">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q19">
-        <v>0.1614024743727778</v>
+        <v>0.091069237044</v>
       </c>
       <c r="R19">
-        <v>1.452622269355</v>
+        <v>0.819623133396</v>
       </c>
       <c r="S19">
-        <v>0.001384064368039738</v>
+        <v>0.001196209072488502</v>
       </c>
       <c r="T19">
-        <v>0.001384064368039737</v>
+        <v>0.001196209072488502</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H20">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I20">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J20">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N20">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P20">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q20">
-        <v>1.063920660873777</v>
+        <v>0.8779248838155553</v>
       </c>
       <c r="R20">
-        <v>9.575285947863998</v>
+        <v>7.901323954339999</v>
       </c>
       <c r="S20">
-        <v>0.009123371143218626</v>
+        <v>0.01153168451906748</v>
       </c>
       <c r="T20">
-        <v>0.009123371143218628</v>
+        <v>0.01153168451906748</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H21">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I21">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J21">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>80.554554</v>
       </c>
       <c r="O21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P21">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q21">
-        <v>14.583050475294</v>
+        <v>4.861109313659999</v>
       </c>
       <c r="R21">
-        <v>131.247454277646</v>
+        <v>43.74998382294</v>
       </c>
       <c r="S21">
-        <v>0.1250531047842697</v>
+        <v>0.06385145250035403</v>
       </c>
       <c r="T21">
-        <v>0.1250531047842697</v>
+        <v>0.06385145250035404</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H22">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I22">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J22">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N22">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P22">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q22">
-        <v>0.07000156430244445</v>
+        <v>0.00530902094111111</v>
       </c>
       <c r="R22">
-        <v>0.6300140787220001</v>
+        <v>0.04778118847</v>
       </c>
       <c r="S22">
-        <v>0.0006002799599855253</v>
+        <v>6.973484375102675E-05</v>
       </c>
       <c r="T22">
-        <v>0.0006002799599855253</v>
+        <v>6.973484375102675E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H23">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I23">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J23">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N23">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P23">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q23">
-        <v>8.496239961273556</v>
+        <v>1.430056061606667</v>
       </c>
       <c r="R23">
-        <v>76.46615965146201</v>
+        <v>12.87050455446</v>
       </c>
       <c r="S23">
-        <v>0.07285726590259377</v>
+        <v>0.01878401632193948</v>
       </c>
       <c r="T23">
-        <v>0.07285726590259378</v>
+        <v>0.01878401632193948</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H24">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I24">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J24">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N24">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P24">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q24">
-        <v>0.3351439077684444</v>
+        <v>0.07212343901555555</v>
       </c>
       <c r="R24">
-        <v>3.016295169916</v>
+        <v>0.6491109511400001</v>
       </c>
       <c r="S24">
-        <v>0.002873938226229171</v>
+        <v>0.0009473529689042549</v>
       </c>
       <c r="T24">
-        <v>0.002873938226229171</v>
+        <v>0.0009473529689042553</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5430996666666666</v>
+        <v>0.1810366666666667</v>
       </c>
       <c r="H25">
-        <v>1.629299</v>
+        <v>0.54311</v>
       </c>
       <c r="I25">
-        <v>0.2125912611146297</v>
+        <v>0.0961432928232504</v>
       </c>
       <c r="J25">
-        <v>0.2125912611146297</v>
+        <v>0.09614329282325042</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N25">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O25">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P25">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q25">
-        <v>0.2429438687238888</v>
+        <v>0.07301407906999999</v>
       </c>
       <c r="R25">
-        <v>2.186494818514999</v>
+        <v>0.6571267116299999</v>
       </c>
       <c r="S25">
-        <v>0.002083301098332916</v>
+        <v>0.0009590516692341297</v>
       </c>
       <c r="T25">
-        <v>0.002083301098332915</v>
+        <v>0.0009590516692341301</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H26">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I26">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J26">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N26">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P26">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q26">
-        <v>0.7315387915217777</v>
+        <v>0.6960566605215555</v>
       </c>
       <c r="R26">
-        <v>6.583849123695999</v>
+        <v>6.264509944694</v>
       </c>
       <c r="S26">
-        <v>0.006273118049266478</v>
+        <v>0.009142816161725941</v>
       </c>
       <c r="T26">
-        <v>0.006273118049266479</v>
+        <v>0.009142816161725945</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H27">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I27">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J27">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>80.554554</v>
       </c>
       <c r="O27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P27">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q27">
-        <v>10.027126564716</v>
+        <v>3.854096834106</v>
       </c>
       <c r="R27">
-        <v>90.24413908244401</v>
+        <v>34.686871506954</v>
       </c>
       <c r="S27">
-        <v>0.08598498037889324</v>
+        <v>0.05062418165400186</v>
       </c>
       <c r="T27">
-        <v>0.08598498037889325</v>
+        <v>0.05062418165400186</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H28">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I28">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J28">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N28">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P28">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q28">
-        <v>0.04813221665644445</v>
+        <v>0.004209220464111111</v>
       </c>
       <c r="R28">
-        <v>0.4331899499080001</v>
+        <v>0.037882984177</v>
       </c>
       <c r="S28">
-        <v>0.0004127451347188848</v>
+        <v>5.528878763792946E-05</v>
       </c>
       <c r="T28">
-        <v>0.0004127451347188848</v>
+        <v>5.528878763792946E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H29">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I29">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J29">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N29">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P29">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q29">
-        <v>5.841910343807556</v>
+        <v>1.133810038820667</v>
       </c>
       <c r="R29">
-        <v>52.57719309426801</v>
+        <v>10.204290349386</v>
       </c>
       <c r="S29">
-        <v>0.05009576203566882</v>
+        <v>0.01489277717634266</v>
       </c>
       <c r="T29">
-        <v>0.05009576203566883</v>
+        <v>0.01489277717634266</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H30">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I30">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J30">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N30">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P30">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q30">
-        <v>0.2304408385804445</v>
+        <v>0.05718256884155556</v>
       </c>
       <c r="R30">
-        <v>2.073967547224</v>
+        <v>0.5146431195740001</v>
       </c>
       <c r="S30">
-        <v>0.001976084659543382</v>
+        <v>0.0007511022366797539</v>
       </c>
       <c r="T30">
-        <v>0.001976084659543382</v>
+        <v>0.000751102236679754</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.3734286666666667</v>
+        <v>0.1435336666666667</v>
       </c>
       <c r="H31">
-        <v>1.120286</v>
+        <v>0.430601</v>
       </c>
       <c r="I31">
-        <v>0.1461751425300476</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="J31">
-        <v>0.1461751425300477</v>
+        <v>0.07622654348655789</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N31">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O31">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P31">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q31">
-        <v>0.1670452230788889</v>
+        <v>0.057888706637</v>
       </c>
       <c r="R31">
-        <v>1.50340700771</v>
+        <v>0.520998359733</v>
       </c>
       <c r="S31">
-        <v>0.001432452271956829</v>
+        <v>0.0007603774701697365</v>
       </c>
       <c r="T31">
-        <v>0.001432452271956829</v>
+        <v>0.0007603774701697366</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3323383333333333</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H32">
-        <v>0.997015</v>
+        <v>1.071064</v>
       </c>
       <c r="I32">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J32">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.958978666666666</v>
+        <v>4.849431333333333</v>
       </c>
       <c r="N32">
-        <v>5.876935999999999</v>
+        <v>14.548294</v>
       </c>
       <c r="O32">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="P32">
-        <v>0.04291508077699997</v>
+        <v>0.1199426832641077</v>
       </c>
       <c r="Q32">
-        <v>0.6510437051155554</v>
+        <v>1.731350440535111</v>
       </c>
       <c r="R32">
-        <v>5.859393346039999</v>
+        <v>15.582153964816</v>
       </c>
       <c r="S32">
-        <v>0.005582853656913875</v>
+        <v>0.02274156643724198</v>
       </c>
       <c r="T32">
-        <v>0.005582853656913875</v>
+        <v>0.02274156643724199</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3323383333333333</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H33">
-        <v>0.997015</v>
+        <v>1.071064</v>
       </c>
       <c r="I33">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J33">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>80.554554</v>
       </c>
       <c r="O33">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="P33">
-        <v>0.5882325742300422</v>
+        <v>0.6641279971317228</v>
       </c>
       <c r="Q33">
-        <v>8.92378873959</v>
+        <v>9.586564758384</v>
       </c>
       <c r="R33">
-        <v>80.31409865630999</v>
+        <v>86.279082825456</v>
       </c>
       <c r="S33">
-        <v>0.07652359773527674</v>
+        <v>0.1259210696191181</v>
       </c>
       <c r="T33">
-        <v>0.07652359773527674</v>
+        <v>0.125921069619118</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3323383333333333</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H34">
-        <v>0.997015</v>
+        <v>1.071064</v>
       </c>
       <c r="I34">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J34">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1288926666666667</v>
+        <v>0.02932566666666667</v>
       </c>
       <c r="N34">
-        <v>0.386678</v>
+        <v>0.087977</v>
       </c>
       <c r="O34">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="P34">
-        <v>0.002823634221078603</v>
+        <v>0.0007253219824624388</v>
       </c>
       <c r="Q34">
-        <v>0.0428359740188889</v>
+        <v>0.01046988861422222</v>
       </c>
       <c r="R34">
-        <v>0.38552376617</v>
+        <v>0.094228997528</v>
       </c>
       <c r="S34">
-        <v>0.0003673286022424175</v>
+        <v>0.0001375236705038569</v>
       </c>
       <c r="T34">
-        <v>0.0003673286022424175</v>
+        <v>0.0001375236705038569</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3323383333333333</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H35">
-        <v>0.997015</v>
+        <v>1.071064</v>
       </c>
       <c r="I35">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J35">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.64397933333333</v>
+        <v>7.899262</v>
       </c>
       <c r="N35">
-        <v>46.931938</v>
+        <v>23.697786</v>
       </c>
       <c r="O35">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="P35">
-        <v>0.3427105400316007</v>
+        <v>0.195375213083995</v>
       </c>
       <c r="Q35">
-        <v>5.199094018341111</v>
+        <v>2.820205051589334</v>
       </c>
       <c r="R35">
-        <v>46.79184616507</v>
+        <v>25.381845464304</v>
       </c>
       <c r="S35">
-        <v>0.04458346010393092</v>
+        <v>0.03704384684104838</v>
       </c>
       <c r="T35">
-        <v>0.04458346010393092</v>
+        <v>0.03704384684104838</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3323383333333333</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H36">
-        <v>0.997015</v>
+        <v>1.071064</v>
       </c>
       <c r="I36">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J36">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6170946666666667</v>
+        <v>0.3983913333333334</v>
       </c>
       <c r="N36">
-        <v>1.851284</v>
+        <v>1.195174</v>
       </c>
       <c r="O36">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677334</v>
       </c>
       <c r="P36">
-        <v>0.01351860942524602</v>
+        <v>0.009853552349677335</v>
       </c>
       <c r="Q36">
-        <v>0.2050842130288889</v>
+        <v>0.1422342050151111</v>
       </c>
       <c r="R36">
-        <v>1.84575791726</v>
+        <v>1.280107845136</v>
       </c>
       <c r="S36">
-        <v>0.001758645601957576</v>
+        <v>0.001868269154105922</v>
       </c>
       <c r="T36">
-        <v>0.001758645601957576</v>
+        <v>0.001868269154105922</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3323383333333333</v>
+        <v>0.3570213333333334</v>
       </c>
       <c r="H37">
-        <v>0.997015</v>
+        <v>1.071064</v>
       </c>
       <c r="I37">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="J37">
-        <v>0.1300907176645923</v>
+        <v>0.1896036158134483</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4473283333333333</v>
+        <v>0.403311</v>
       </c>
       <c r="N37">
-        <v>1.341985</v>
+        <v>1.209933</v>
       </c>
       <c r="O37">
-        <v>0.009799561315032582</v>
+        <v>0.009975232188034667</v>
       </c>
       <c r="P37">
-        <v>0.00979956131503258</v>
+        <v>0.009975232188034668</v>
       </c>
       <c r="Q37">
-        <v>0.1486643527527778</v>
+        <v>0.143990630968</v>
       </c>
       <c r="R37">
-        <v>1.337979174775</v>
+        <v>1.295915678712</v>
       </c>
       <c r="S37">
-        <v>0.001274831964270764</v>
+        <v>0.001891340091430068</v>
       </c>
       <c r="T37">
-        <v>0.001274831964270764</v>
+        <v>0.001891340091430068</v>
       </c>
     </row>
   </sheetData>
